--- a/turbine_power_curve_5_MW.xlsx
+++ b/turbine_power_curve_5_MW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davide\Desktop\Uni UPC\Power Systems-ESEC-EL SISTEMA ELÈCTRIC\Lavoro di Gruppo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0993709C-1904-4773-ACE3-AF72657C30BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F992EB-9C10-4913-8F99-951FA3E521EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1489,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1595,10 +1595,10 @@
         <v>0.89</v>
       </c>
       <c r="F5">
-        <v>60.318893205391142</v>
+        <v>60.318893205391099</v>
       </c>
       <c r="H5" s="15">
-        <f>(D5*0.5*$K$19*PI()*$K$9^2*B5^3)/10^3</f>
+        <f t="shared" ref="H5:H32" si="0">(D5*0.5*$K$19*PI()*$K$9^2*B5^3)/10^3</f>
         <v>60.318893205391142</v>
       </c>
       <c r="I5" s="3"/>
@@ -1648,7 +1648,7 @@
         <v>185.34200381354751</v>
       </c>
       <c r="H6" s="15">
-        <f>(D6*0.5*$K$19*PI()*$K$9^2*B6^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>185.34200381354751</v>
       </c>
       <c r="I6" s="3"/>
@@ -1671,7 +1671,7 @@
       <c r="U6" s="14"/>
       <c r="V6" s="3"/>
       <c r="Y6" s="16">
-        <f>H2*U6</f>
+        <f t="shared" ref="Y6:Y36" si="1">H2*U6</f>
         <v>0</v>
       </c>
     </row>
@@ -1692,7 +1692,7 @@
         <v>424.05257568947815</v>
       </c>
       <c r="H7" s="15">
-        <f>(D7*0.5*$K$19*PI()*$K$9^2*B7^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>424.05257568947815</v>
       </c>
       <c r="I7" s="3"/>
@@ -1715,7 +1715,7 @@
       <c r="U7" s="14"/>
       <c r="V7" s="3"/>
       <c r="Y7" s="16">
-        <f>H3*U7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
         <v>804.25190940521509</v>
       </c>
       <c r="H8" s="15">
-        <f>(D8*0.5*$K$19*PI()*$K$9^2*B8^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>804.25190940521509</v>
       </c>
       <c r="I8" s="3"/>
@@ -1759,7 +1759,7 @@
       <c r="U8" s="14"/>
       <c r="V8" s="3"/>
       <c r="Y8" s="16">
-        <f>H4*U8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
         <v>1333.8832336956245</v>
       </c>
       <c r="H9" s="15">
-        <f>(D9*0.5*$K$19*PI()*$K$9^2*B9^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>1333.8832336956245</v>
       </c>
       <c r="I9" s="3"/>
@@ -1803,7 +1803,7 @@
       <c r="U9" s="14"/>
       <c r="V9" s="3"/>
       <c r="Y9" s="16">
-        <f>H5*U9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1824,7 +1824,7 @@
         <v>2033.4665561257782</v>
       </c>
       <c r="H10" s="15">
-        <f>(D10*0.5*$K$19*PI()*$K$9^2*B10^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>2033.4665561257782</v>
       </c>
       <c r="I10" s="3"/>
@@ -1847,7 +1847,7 @@
       <c r="U10" s="14"/>
       <c r="V10" s="3"/>
       <c r="Y10" s="16">
-        <f>H6*U10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
         <v>2834.9879806533827</v>
       </c>
       <c r="H11" s="15">
-        <f>(D11*0.5*$K$19*PI()*$K$9^2*B11^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>2834.9879806533827</v>
       </c>
       <c r="I11" s="3"/>
@@ -1891,7 +1891,7 @@
       <c r="U11" s="14"/>
       <c r="V11" s="3"/>
       <c r="Y11" s="16">
-        <f>H7*U11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
         <v>3640.6465034803978</v>
       </c>
       <c r="H12" s="15">
-        <f>(D12*0.5*$K$19*PI()*$K$9^2*B12^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>3640.6465034803978</v>
       </c>
       <c r="I12" s="3"/>
@@ -1935,7 +1935,7 @@
       <c r="U12" s="14"/>
       <c r="V12" s="3"/>
       <c r="Y12" s="16">
-        <f>H8*U12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
         <v>4295.0527124809996</v>
       </c>
       <c r="H13" s="15">
-        <f>(D13*0.5*$K$19*PI()*$K$9^2*B13^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>4295.0527124809996</v>
       </c>
       <c r="I13" s="3"/>
@@ -1975,7 +1975,7 @@
       <c r="U13" s="14"/>
       <c r="V13" s="3"/>
       <c r="Y13" s="16">
-        <f>H9*U13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
         <v>4718.2778685105959</v>
       </c>
       <c r="H14" s="15">
-        <f>(D14*0.5*$K$19*PI()*$K$9^2*B14^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>4718.2778685105959</v>
       </c>
       <c r="I14" s="3"/>
@@ -2015,7 +2015,7 @@
       <c r="U14" s="14"/>
       <c r="V14" s="3"/>
       <c r="Y14" s="16">
-        <f>H10*U14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
         <v>4908.1706804534942</v>
       </c>
       <c r="H15" s="15">
-        <f>(D15*0.5*$K$19*PI()*$K$9^2*B15^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>4908.1706804534942</v>
       </c>
       <c r="I15" s="3"/>
@@ -2055,7 +2055,7 @@
       <c r="U15" s="14"/>
       <c r="V15" s="3"/>
       <c r="Y15" s="16">
-        <f>H11*U15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
         <v>4994.9670027751054</v>
       </c>
       <c r="H16" s="15">
-        <f>(D16*0.5*$K$19*PI()*$K$9^2*B16^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>4994.9670027751054</v>
       </c>
       <c r="I16" s="3"/>
@@ -2095,7 +2095,7 @@
       <c r="U16" s="14"/>
       <c r="V16" s="3"/>
       <c r="Y16" s="16">
-        <f>H12*U16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
         <v>5026.5744337825936</v>
       </c>
       <c r="H17" s="15">
-        <f>(D17*0.5*$K$19*PI()*$K$9^2*B17^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>5026.5744337825936</v>
       </c>
       <c r="I17" s="3"/>
@@ -2137,7 +2137,7 @@
       <c r="U17" s="14"/>
       <c r="V17" s="3"/>
       <c r="Y17" s="16">
-        <f>H13*U17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2158,7 +2158,7 @@
         <v>5083.6663903144454</v>
       </c>
       <c r="H18" s="15">
-        <f>(D18*0.5*$K$19*PI()*$K$9^2*B18^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>5083.6663903144454</v>
       </c>
       <c r="I18" s="3"/>
@@ -2181,7 +2181,7 @@
       <c r="U18" s="14"/>
       <c r="V18" s="3"/>
       <c r="Y18" s="16">
-        <f>H14*U18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
         <v>4878.1353467997797</v>
       </c>
       <c r="H19" s="15">
-        <f>(D19*0.5*$K$19*PI()*$K$9^2*B19^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>4878.1353467997797</v>
       </c>
       <c r="I19" s="3"/>
@@ -2226,7 +2226,7 @@
       <c r="U19" s="14"/>
       <c r="V19" s="3"/>
       <c r="Y19" s="16">
-        <f>H15*U19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
         <v>4825.5114564312898</v>
       </c>
       <c r="H20" s="15">
-        <f>(D20*0.5*$K$19*PI()*$K$9^2*B20^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>4825.5114564312898</v>
       </c>
       <c r="I20" s="3"/>
@@ -2270,7 +2270,7 @@
       <c r="U20" s="14"/>
       <c r="V20" s="3"/>
       <c r="Y20" s="16">
-        <f>H16*U20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
         <v>5107.7443024170088</v>
       </c>
       <c r="H21" s="15">
-        <f>(D21*0.5*$K$19*PI()*$K$9^2*B21^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>5107.7443024170088</v>
       </c>
       <c r="I21" s="3"/>
@@ -2314,7 +2314,7 @@
       <c r="U21" s="14"/>
       <c r="V21" s="3"/>
       <c r="Y21" s="16">
-        <f>H17*U21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
         <v>4633.5500953386882</v>
       </c>
       <c r="H22" s="15">
-        <f>(D22*0.5*$K$19*PI()*$K$9^2*B22^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>4633.5500953386882</v>
       </c>
       <c r="I22" s="3"/>
@@ -2358,7 +2358,7 @@
       <c r="U22" s="14"/>
       <c r="V22" s="3"/>
       <c r="Y22" s="16">
-        <f>H18*U22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2379,7 +2379,7 @@
         <v>4597.6400820998124</v>
       </c>
       <c r="H23" s="15">
-        <f>(D23*0.5*$K$19*PI()*$K$9^2*B23^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>4597.6400820998124</v>
       </c>
       <c r="I23" s="3"/>
@@ -2403,7 +2403,7 @@
       <c r="U23" s="14"/>
       <c r="V23" s="3"/>
       <c r="Y23" s="16">
-        <f>H19*U23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2424,7 +2424,7 @@
         <v>4405.182269211281</v>
       </c>
       <c r="H24" s="15">
-        <f>(D24*0.5*$K$19*PI()*$K$9^2*B24^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>4405.182269211281</v>
       </c>
       <c r="I24" s="3"/>
@@ -2447,7 +2447,7 @@
       <c r="U24" s="14"/>
       <c r="V24" s="3"/>
       <c r="Y24" s="16">
-        <f>H20*U24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2468,7 +2468,7 @@
         <v>4026.8860007132726</v>
       </c>
       <c r="H25" s="15">
-        <f>(D25*0.5*$K$19*PI()*$K$9^2*B25^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>4026.8860007132726</v>
       </c>
       <c r="I25" s="3"/>
@@ -2487,7 +2487,7 @@
       <c r="U25" s="14"/>
       <c r="V25" s="3"/>
       <c r="Y25" s="16">
-        <f>H21*U25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
         <v>4575.2997512830016</v>
       </c>
       <c r="H26" s="15">
-        <f>(D26*0.5*$K$19*PI()*$K$9^2*B26^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>4575.2997512830016</v>
       </c>
       <c r="I26" s="3"/>
@@ -2527,7 +2527,7 @@
       <c r="U26" s="14"/>
       <c r="V26" s="3"/>
       <c r="Y26" s="16">
-        <f>H22*U26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2548,7 +2548,7 @@
         <v>3878.5296556964463</v>
       </c>
       <c r="H27" s="15">
-        <f>(D27*0.5*$K$19*PI()*$K$9^2*B27^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>3878.5296556964463</v>
       </c>
       <c r="I27" s="3"/>
@@ -2567,7 +2567,7 @@
       <c r="U27" s="14"/>
       <c r="V27" s="3"/>
       <c r="Y27" s="16">
-        <f>H23*U27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
         <v>2908.545588416885</v>
       </c>
       <c r="H28" s="15">
-        <f>(D28*0.5*$K$19*PI()*$K$9^2*B28^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>2908.545588416885</v>
       </c>
       <c r="I28" s="3"/>
@@ -2607,7 +2607,7 @@
       <c r="U28" s="14"/>
       <c r="V28" s="3"/>
       <c r="Y28" s="16">
-        <f>H24*U28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2628,7 +2628,7 @@
         <v>3257.2202330911209</v>
       </c>
       <c r="H29" s="15">
-        <f>(D29*0.5*$K$19*PI()*$K$9^2*B29^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>3257.2202330911209</v>
       </c>
       <c r="I29" s="3"/>
@@ -2647,7 +2647,7 @@
       <c r="U29" s="14"/>
       <c r="V29" s="3"/>
       <c r="Y29" s="16">
-        <f>H25*U29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2668,7 +2668,7 @@
         <v>3632.7032747455314</v>
       </c>
       <c r="H30" s="15">
-        <f>(D30*0.5*$K$19*PI()*$K$9^2*B30^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>3632.7032747455314</v>
       </c>
       <c r="I30" s="3"/>
@@ -2687,7 +2687,7 @@
       <c r="U30" s="14"/>
       <c r="V30" s="3"/>
       <c r="Y30" s="16">
-        <f>H26*U30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
         <v>2017.9938084859868</v>
       </c>
       <c r="H31" s="15">
-        <f>(D31*0.5*$K$19*PI()*$K$9^2*B31^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>2017.9938084859868</v>
       </c>
       <c r="I31" s="3"/>
@@ -2727,7 +2727,7 @@
       <c r="U31" s="14"/>
       <c r="V31" s="3"/>
       <c r="Y31" s="16">
-        <f>H27*U31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
         <v>2234.0330816811534</v>
       </c>
       <c r="H32" s="15">
-        <f>(D32*0.5*$K$19*PI()*$K$9^2*B32^3)/10^3</f>
+        <f t="shared" si="0"/>
         <v>2234.0330816811534</v>
       </c>
       <c r="I32" s="3"/>
@@ -2767,7 +2767,7 @@
       <c r="U32" s="14"/>
       <c r="V32" s="3"/>
       <c r="Y32" s="16">
-        <f>H28*U32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
       <c r="U33" s="14"/>
       <c r="V33" s="3"/>
       <c r="Y33" s="16">
-        <f>H29*U33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       <c r="U34" s="14"/>
       <c r="V34" s="3"/>
       <c r="Y34" s="16">
-        <f>H30*U34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
       <c r="U35" s="14"/>
       <c r="V35" s="3"/>
       <c r="Y35" s="16">
-        <f>H31*U35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       <c r="U36" s="33"/>
       <c r="V36" s="3"/>
       <c r="Y36" s="16">
-        <f>H32*U36</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
